--- a/やること.xlsx
+++ b/やること.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktops\3DGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouts\OneDrive\デスクトップ\3DGameC++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1BA2FF-39F1-4F61-9E40-9294B8AA5B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043BB733-79A4-46A7-8841-517144669C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="14490" xr2:uid="{340E3A94-AFCE-4F66-9E9F-640D4C8C8541}"/>
+    <workbookView xWindow="2715" yWindow="1245" windowWidth="21600" windowHeight="11295" xr2:uid="{340E3A94-AFCE-4F66-9E9F-640D4C8C8541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -132,6 +132,25 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めり込み、音、砲塔旋回速度を遅くする</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウトウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>センカイソクド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -500,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F24D66-974F-491A-9F4E-6FB3A482D2E6}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -516,61 +535,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="C15" s="1"/>
@@ -761,6 +764,27 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
